--- a/data/naming/NamingConventionOffice365.xlsx
+++ b/data/naming/NamingConventionOffice365.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alyaconsulting031-my.sharepoint.com/personal/konrad_brunner_alyaconsulting_ch/Documents/Desktop/Source/ALYADO-ADM-CloudConfiguration/data/naming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{8E2988E4-19FF-4EC6-BB32-646BFA2389CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2AA53680-3154-4612-A475-F5232A63A252}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{8E2988E4-19FF-4EC6-BB32-646BFA2389CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4102A45C-F892-436F-8B4B-0EE7B4EEACBD}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1098" yWindow="1098" windowWidth="15654" windowHeight="10902" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Konvention" sheetId="1" r:id="rId1"/>
@@ -900,22 +900,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:colOff>140970</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>87630</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>579741</xdr:colOff>
+      <xdr:colOff>549910</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1152524</xdr:rowOff>
+      <xdr:rowOff>986790</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2">
+        <xdr:cNvPr id="4" name="Grafik 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF86AD86-1001-4DDA-8CDE-3867934FB4A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5929DCE0-372E-4167-A830-D2977AA041CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -940,8 +940,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="123825" y="219075"/>
-          <a:ext cx="2284716" cy="1123949"/>
+          <a:off x="140970" y="270510"/>
+          <a:ext cx="2397760" cy="899160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1221,7 +1221,9 @@
   </sheetPr>
   <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>

--- a/data/naming/NamingConventionOffice365.xlsx
+++ b/data/naming/NamingConventionOffice365.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alyaconsulting031-my.sharepoint.com/personal/konrad_brunner_alyaconsulting_ch/Documents/Desktop/Source/ALYADO-ADM-CloudConfiguration/data/naming/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{8E2988E4-19FF-4EC6-BB32-646BFA2389CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4102A45C-F892-436F-8B4B-0EE7B4EEACBD}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{8E2988E4-19FF-4EC6-BB32-646BFA2389CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A41AE0D8-5910-4816-B60B-8090D9D58A4B}"/>
   <bookViews>
-    <workbookView xWindow="1098" yWindow="1098" windowWidth="15654" windowHeight="10902" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12240" yWindow="1596" windowWidth="27516" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Konvention" sheetId="1" r:id="rId1"/>
@@ -1225,16 +1225,16 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="9.15625" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="35.83984375" customWidth="1"/>
+    <col min="11" max="11" width="35.88671875" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.68359375" customWidth="1"/>
+    <col min="13" max="13" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E2" s="43" t="s">
         <v>52</v>
       </c>
@@ -1245,21 +1245,21 @@
       <c r="J2" s="43"/>
       <c r="K2" s="43"/>
     </row>
-    <row r="4" spans="1:11" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.2" x14ac:dyDescent="1.05">
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="26"/>
       <c r="B5" s="28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="26"/>
     </row>
-    <row r="7" spans="1:11" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="26"/>
       <c r="B7" s="29" t="s">
         <v>5</v>
@@ -1268,7 +1268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="26"/>
       <c r="B8" s="30" t="s">
         <v>6</v>
@@ -1277,7 +1277,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="26"/>
       <c r="B9" s="31" t="s">
         <v>7</v>
@@ -1286,7 +1286,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="26"/>
       <c r="B10" s="32" t="s">
         <v>1</v>
@@ -1295,7 +1295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="26"/>
       <c r="B11" s="33" t="s">
         <v>3</v>
@@ -1307,18 +1307,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="26"/>
       <c r="K12" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="26" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="26"/>
       <c r="B14" s="44" t="s">
         <v>24</v>
@@ -1345,7 +1345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="26"/>
       <c r="B15" s="47" t="s">
         <v>54</v>
@@ -1371,7 +1371,7 @@
         <v>ALYASP-ADM-Administratives</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="26"/>
       <c r="B16" s="37" t="s">
         <v>20</v>
@@ -1399,7 +1399,7 @@
         <v>ALYATMT-PRJ-Projekt A</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="26"/>
       <c r="B17" s="37" t="s">
         <v>53</v>
@@ -1425,7 +1425,7 @@
         <v>ALYAOG-CUS-Kunde A</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="26"/>
       <c r="B18" s="37" t="s">
         <v>55</v>
@@ -1451,7 +1451,7 @@
         <v>ALYASG-ADM-NoMFA</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="26"/>
       <c r="B19" s="37" t="s">
         <v>57</v>
@@ -1477,7 +1477,7 @@
         <v>ALYAPL-PRJ-Projekt A</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="26"/>
       <c r="B20" s="40"/>
       <c r="C20" s="41"/>
@@ -1490,15 +1490,15 @@
       <c r="J20" s="20"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="26"/>
     </row>
-    <row r="22" spans="1:11" ht="18.3" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B23" s="34" t="s">
         <v>6</v>
       </c>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="I23" s="27"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B24" s="27" t="s">
         <v>14</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B25" s="27" t="s">
         <v>18</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B26" s="27" t="s">
         <v>25</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B27" s="27" t="s">
         <v>45</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B28" s="27" t="s">
         <v>47</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B29" s="27" t="s">
         <v>58</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B30" s="27" t="s">
         <v>56</v>
       </c>

--- a/data/naming/NamingConventionOffice365.xlsx
+++ b/data/naming/NamingConventionOffice365.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alyaconsulting031-my.sharepoint.com/personal/konrad_brunner_alyaconsulting_ch/Documents/Desktop/Source/ALYADO-ADM-CloudConfiguration/data/naming/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\ALYADO-ADM-CloudConfiguration\data\naming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{8E2988E4-19FF-4EC6-BB32-646BFA2389CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A41AE0D8-5910-4816-B60B-8090D9D58A4B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E804879A-3D00-4745-AE32-75588ECBB895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="1596" windowWidth="27516" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16056" yWindow="276" windowWidth="24756" windowHeight="16152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Konvention" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>Schema:</t>
   </si>
@@ -295,6 +295,54 @@
   </si>
   <si>
     <t>NoMFA</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Intune</t>
+  </si>
+  <si>
+    <t>EX</t>
+  </si>
+  <si>
+    <t>Exchange Online</t>
+  </si>
+  <si>
+    <t>Microsoft Viva</t>
+  </si>
+  <si>
+    <t>MV</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Copilot</t>
+  </si>
+  <si>
+    <t>Power BI</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Microsoft 365</t>
+  </si>
+  <si>
+    <t>Microsoft Defender XDR</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>Microsoft 365 Group</t>
   </si>
 </sst>
 </file>
@@ -1219,10 +1267,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K30"/>
+  <dimension ref="A2:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1516,10 +1564,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B24" s="27" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="E24" s="27" t="s">
         <v>19</v>
@@ -1536,10 +1584,10 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B25" s="27" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="E25" s="27" t="s">
         <v>15</v>
@@ -1556,10 +1604,10 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B26" s="27" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="E26" s="27"/>
       <c r="H26" s="27" t="s">
@@ -1586,10 +1634,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B28" s="27" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E28" s="27"/>
       <c r="H28" s="27" t="s">
@@ -1601,21 +1649,88 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B29" s="27" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B30" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B31" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B32" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C36" t="s">
         <v>60</v>
       </c>
     </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B24:C38">
+    <sortCondition ref="B24:B38"/>
+  </sortState>
   <mergeCells count="8">
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B20:E20"/>

--- a/data/naming/NamingConventionOffice365.xlsx
+++ b/data/naming/NamingConventionOffice365.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\ALYADO-ADM-CloudConfiguration\data\naming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E804879A-3D00-4745-AE32-75588ECBB895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30327E55-CF0C-4900-A1C3-3DA6B65D24BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16056" yWindow="276" windowWidth="24756" windowHeight="16152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="1128" windowWidth="24756" windowHeight="16152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Konvention" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="80">
   <si>
     <t>Schema:</t>
   </si>
@@ -343,6 +343,12 @@
   </si>
   <si>
     <t>Microsoft 365 Group</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Purview </t>
   </si>
 </sst>
 </file>
@@ -1267,11 +1273,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K38"/>
+  <dimension ref="A2:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:C38"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1665,71 +1669,79 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B31" s="27" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B32" s="27" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="27" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="27" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="27" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="27" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B24:C38">
-    <sortCondition ref="B24:B38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B24:C39">
+    <sortCondition ref="B24:B39"/>
   </sortState>
   <mergeCells count="8">
     <mergeCell ref="B18:E18"/>
